--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="59" customWidth="1" min="2" max="2"/>
     <col width="161" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.6125</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -544,16 +544,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>% of women achieving empowerment</t>
+          <t>Average % of disempowered women's inadequate achievements</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Percentage of women with 5DE scores of 80% or more</t>
+          <t>Average proportion of domains in which disempowered women experience inadequate achievements</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>% of women not achieving empowerment</t>
+          <t>% of women achieving empowerment</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Percentage of women with 5DE scores of less than 80%</t>
+          <t>Percentage of women with 5DE scores of 80% or more</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8">
@@ -580,16 +580,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GPI Score</t>
+          <t>% of women not achieving empowerment</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The GPI sub-index measures the inequality in 5DE scores between the primary adult male decisionmakers and primary adult female decisionmakers in the households</t>
+          <t>Percentage of women with 5DE scores of less than 80%</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N (Number of dual-adult households)</t>
+          <t>GPI Score</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The number of households with both a primary male and primary female decisionmaker</t>
+          <t>The GPI sub-index measures the inequality in 5DE scores between the primary adult male decisionmakers and primary adult female decisionmakers in the households</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>0.3389</v>
       </c>
     </row>
     <row r="10">
@@ -616,16 +616,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>% of women achieving gender parity</t>
+          <t>N (Number of dual-adult households)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Percentage of women who have 5DE scores qual to or higher than those of the primary adult males in their households</t>
+          <t>The number of households with both a primary male and primary female decisionmaker</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -634,16 +634,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>% of women not achieving gender parity</t>
+          <t>% of women achieving gender parity</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Percentage of women who have 5DE scores lower than those of the primary adult males in their households</t>
+          <t>Percentage of women who have 5DE scores qual to or higher than those of the primary adult males in their households</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Average empowerment gap</t>
+          <t>% of women not achieving gender parity</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>For women lacking parity, the average percentage shortfall they experience relative to the males in their household</t>
+          <t>Percentage of women who have 5DE scores lower than those of the primary adult males in their households</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -670,65 +670,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Average empowerment gap</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>For women lacking parity, the average percentage shortfall they experience relative to the males in their household</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6611</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>WEAI Score</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Women's Empowerment in Agriculture Index</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15">
-      <c r="B15" s="1" t="inlineStr">
+      <c r="D14" t="n">
+        <v>0.3826</v>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>Domain</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Indicator</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D16" s="1" t="inlineStr">
         <is>
           <t>Adequacy</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
         <is>
           <t>Inadequacy</t>
         </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1. Production</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Input in productive decisions</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -737,40 +734,40 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Autonomy in production</t>
+          <t>Input in productive decisions</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2. Resources</t>
+          <t>1. Production</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ownership of assets</t>
+          <t>Autonomy in production</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -779,19 +776,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Purchase, sale, or transfer of assets</t>
+          <t>Ownership of assets</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -800,61 +797,61 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Access to and decisions on credit</t>
+          <t>Purchase, sale, or transfer of assets</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3. Income</t>
+          <t>2. Resources</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Access to and decisions on credit</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4. Leadership</t>
+          <t>3. Income</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Group membership</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -863,56 +860,77 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Speaking in public</t>
+          <t>Group membership</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5. Time allocation</t>
+          <t>4. Leadership</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Workload</t>
+          <t>Speaking in public</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5. Time allocation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Workload</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>5. Time allocation</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Leisure</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
+      <c r="D26" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
